--- a/ResultsMatrix/Tabelas de Resultados.xlsx
+++ b/ResultsMatrix/Tabelas de Resultados.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Biblio - Intro" sheetId="4" r:id="rId1"/>
     <sheet name="Resultados" sheetId="1" r:id="rId2"/>
     <sheet name="Resultados II" sheetId="6" r:id="rId3"/>
-    <sheet name="Resultados IV" sheetId="7" r:id="rId4"/>
-    <sheet name="Resultados III" sheetId="2" r:id="rId5"/>
-    <sheet name="Discussão" sheetId="3" r:id="rId6"/>
-    <sheet name="Conclusão" sheetId="5" r:id="rId7"/>
+    <sheet name="Resultados III" sheetId="2" r:id="rId4"/>
+    <sheet name="Resultados IV" sheetId="7" r:id="rId5"/>
+    <sheet name="Resultados V" sheetId="8" r:id="rId6"/>
+    <sheet name="Discussão" sheetId="3" r:id="rId7"/>
+    <sheet name="Conclusão" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="177">
   <si>
     <t>Method</t>
   </si>
@@ -506,6 +506,64 @@
   </si>
   <si>
     <t>w/ Perm.</t>
+  </si>
+  <si>
+    <t>0.5557</t>
+  </si>
+  <si>
+    <t>w/ PS</t>
+  </si>
+  <si>
+    <t>SS-GC</t>
+  </si>
+  <si>
+    <t>Framework Exploration for SS-GC with TRS</t>
+  </si>
+  <si>
+    <t>Optimal values</t>
+  </si>
+  <si>
+    <t>f1 Score (max)</t>
+  </si>
+  <si>
+    <t>Low
+(1)</t>
+  </si>
+  <si>
+    <t>0.6667</t>
+  </si>
+  <si>
+    <t>0.5882</t>
+  </si>
+  <si>
+    <t>0.4705</t>
+  </si>
+  <si>
+    <t>0.5714</t>
+  </si>
+  <si>
+    <t>0.5263</t>
+  </si>
+  <si>
+    <t>0.4117</t>
+  </si>
+  <si>
+    <t>0.3589</t>
+  </si>
+  <si>
+    <t>0.5 Hz</t>
+  </si>
+  <si>
+    <t>0.3333</t>
+  </si>
+  <si>
+    <t>0.3181</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1683,16 +1741,130 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,130 +1873,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,34 +1912,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1872,6 +1927,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1879,6 +1943,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,15 +1990,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1959,21 +2038,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3104,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:O26"/>
+    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,35 +3245,35 @@
     <row r="2" spans="1:37" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90"/>
       <c r="B2" s="104"/>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="170"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="90"/>
-      <c r="K2" s="168" t="s">
+      <c r="K2" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="170"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="155"/>
       <c r="R2" s="90"/>
-      <c r="S2" s="168" t="s">
+      <c r="S2" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="170"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="155"/>
       <c r="Z2" s="90"/>
       <c r="AB2" s="90"/>
       <c r="AC2" s="90"/>
@@ -3216,58 +3288,58 @@
     </row>
     <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="171"/>
+      <c r="C3" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143" t="s">
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="145" t="s">
+      <c r="H3" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="160" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="90"/>
-      <c r="K3" s="141" t="s">
+      <c r="K3" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="142" t="s">
+      <c r="L3" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143" t="s">
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="145" t="s">
+      <c r="P3" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="147" t="s">
+      <c r="Q3" s="160" t="s">
         <v>9</v>
       </c>
       <c r="R3" s="90"/>
-      <c r="S3" s="141" t="s">
+      <c r="S3" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="142" t="s">
+      <c r="T3" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="143" t="s">
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="145" t="s">
+      <c r="X3" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="147" t="s">
+      <c r="Y3" s="160" t="s">
         <v>9</v>
       </c>
       <c r="Z3" s="90"/>
@@ -3275,27 +3347,27 @@
       <c r="AC3" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="AD3" s="177" t="s">
+      <c r="AD3" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="AE3" s="177"/>
+      <c r="AE3" s="141"/>
       <c r="AF3" s="109" t="s">
         <v>138</v>
       </c>
       <c r="AG3" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="AH3" s="177" t="s">
+      <c r="AH3" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="AI3" s="177"/>
-      <c r="AJ3" s="177"/>
+      <c r="AI3" s="141"/>
+      <c r="AJ3" s="141"/>
       <c r="AK3" s="90"/>
     </row>
     <row r="4" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="139"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="100" t="s">
         <v>5</v>
       </c>
@@ -3305,11 +3377,11 @@
       <c r="F4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="148"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="161"/>
       <c r="J4" s="90"/>
-      <c r="K4" s="139"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3319,11 +3391,11 @@
       <c r="N4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="144"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="148"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="180"/>
+      <c r="Q4" s="161"/>
       <c r="R4" s="90"/>
-      <c r="S4" s="139"/>
+      <c r="S4" s="157"/>
       <c r="T4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3333,35 +3405,35 @@
       <c r="V4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="144"/>
-      <c r="X4" s="146"/>
-      <c r="Y4" s="148"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="180"/>
+      <c r="Y4" s="161"/>
       <c r="Z4" s="90"/>
       <c r="AB4" s="96"/>
       <c r="AC4" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="AD4" s="178" t="s">
+      <c r="AD4" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="AE4" s="178"/>
+      <c r="AE4" s="142"/>
       <c r="AF4" s="106">
         <v>1000</v>
       </c>
       <c r="AG4" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="AH4" s="178" t="s">
+      <c r="AH4" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="AI4" s="178"/>
-      <c r="AJ4" s="178"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
       <c r="AK4" s="90"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="139" t="s">
+      <c r="B5" s="171"/>
+      <c r="C5" s="157" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="98">
@@ -3383,7 +3455,7 @@
         <v>28</v>
       </c>
       <c r="J5" s="90"/>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="157" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="25">
@@ -3405,7 +3477,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="90"/>
-      <c r="S5" s="139" t="s">
+      <c r="S5" s="157" t="s">
         <v>22</v>
       </c>
       <c r="T5" s="25">
@@ -3431,27 +3503,27 @@
       <c r="AC5" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="AD5" s="179" t="s">
+      <c r="AD5" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="AE5" s="179"/>
+      <c r="AE5" s="143"/>
       <c r="AF5" s="107">
         <v>200</v>
       </c>
       <c r="AG5" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AH5" s="179" t="s">
+      <c r="AH5" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="AI5" s="179"/>
-      <c r="AJ5" s="179"/>
+      <c r="AI5" s="143"/>
+      <c r="AJ5" s="143"/>
       <c r="AK5" s="90"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="139"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="157"/>
       <c r="D6" s="98">
         <v>0.58819999999999995</v>
       </c>
@@ -3471,7 +3543,7 @@
         <v>34</v>
       </c>
       <c r="J6" s="90"/>
-      <c r="K6" s="139"/>
+      <c r="K6" s="157"/>
       <c r="L6" s="25">
         <v>0.58819999999999995</v>
       </c>
@@ -3491,7 +3563,7 @@
         <v>34</v>
       </c>
       <c r="R6" s="90"/>
-      <c r="S6" s="139"/>
+      <c r="S6" s="157"/>
       <c r="T6" s="25">
         <v>0.58819999999999995</v>
       </c>
@@ -3515,27 +3587,27 @@
       <c r="AC6" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="AD6" s="179" t="s">
+      <c r="AD6" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="AE6" s="179"/>
+      <c r="AE6" s="143"/>
       <c r="AF6" s="107">
         <v>200</v>
       </c>
       <c r="AG6" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="AH6" s="179" t="s">
+      <c r="AH6" s="143" t="s">
         <v>135</v>
       </c>
-      <c r="AI6" s="179"/>
-      <c r="AJ6" s="179"/>
+      <c r="AI6" s="143"/>
+      <c r="AJ6" s="143"/>
       <c r="AK6" s="90"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="139"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="98">
         <v>0.46150000000000002</v>
       </c>
@@ -3555,7 +3627,7 @@
         <v>35</v>
       </c>
       <c r="J7" s="90"/>
-      <c r="K7" s="139"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="16">
         <v>0.46150000000000002</v>
       </c>
@@ -3575,7 +3647,7 @@
         <v>35</v>
       </c>
       <c r="R7" s="90"/>
-      <c r="S7" s="139"/>
+      <c r="S7" s="157"/>
       <c r="T7" s="25">
         <v>0.46150000000000002</v>
       </c>
@@ -3599,27 +3671,27 @@
       <c r="AC7" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="AD7" s="180" t="s">
+      <c r="AD7" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="AE7" s="180"/>
+      <c r="AE7" s="144"/>
       <c r="AF7" s="108">
         <v>1</v>
       </c>
       <c r="AG7" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="AH7" s="180" t="s">
+      <c r="AH7" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="AI7" s="180"/>
-      <c r="AJ7" s="180"/>
+      <c r="AI7" s="144"/>
+      <c r="AJ7" s="144"/>
       <c r="AK7" s="90"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="90"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="139" t="s">
+      <c r="B8" s="171"/>
+      <c r="C8" s="157" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="97">
@@ -3641,7 +3713,7 @@
         <v>28</v>
       </c>
       <c r="J8" s="90"/>
-      <c r="K8" s="139" t="s">
+      <c r="K8" s="157" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="3">
@@ -3663,7 +3735,7 @@
         <v>28</v>
       </c>
       <c r="R8" s="90"/>
-      <c r="S8" s="139" t="s">
+      <c r="S8" s="157" t="s">
         <v>115</v>
       </c>
       <c r="T8" s="10">
@@ -3698,8 +3770,8 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="90"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="139"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="157"/>
       <c r="D9" s="98">
         <v>0.47049999999999997</v>
       </c>
@@ -3719,7 +3791,7 @@
         <v>34</v>
       </c>
       <c r="J9" s="90"/>
-      <c r="K9" s="139"/>
+      <c r="K9" s="157"/>
       <c r="L9" s="3">
         <v>0.35289999999999999</v>
       </c>
@@ -3739,7 +3811,7 @@
         <v>34</v>
       </c>
       <c r="R9" s="90"/>
-      <c r="S9" s="139"/>
+      <c r="S9" s="157"/>
       <c r="T9" s="3">
         <v>0.52629999999999999</v>
       </c>
@@ -3765,8 +3837,8 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="140"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="159"/>
       <c r="D10" s="99">
         <v>0.46150000000000002</v>
       </c>
@@ -3786,7 +3858,7 @@
         <v>35</v>
       </c>
       <c r="J10" s="90"/>
-      <c r="K10" s="139"/>
+      <c r="K10" s="157"/>
       <c r="L10" s="3">
         <v>0.3548</v>
       </c>
@@ -3806,7 +3878,7 @@
         <v>35</v>
       </c>
       <c r="R10" s="90"/>
-      <c r="S10" s="139"/>
+      <c r="S10" s="157"/>
       <c r="T10" s="15">
         <v>0.5333</v>
       </c>
@@ -3838,7 +3910,7 @@
       <c r="H11" s="90"/>
       <c r="I11" s="93"/>
       <c r="J11" s="90"/>
-      <c r="K11" s="139" t="s">
+      <c r="K11" s="157" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="10">
@@ -3860,7 +3932,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="90"/>
-      <c r="S11" s="139" t="s">
+      <c r="S11" s="157" t="s">
         <v>23</v>
       </c>
       <c r="T11" s="3">
@@ -3886,17 +3958,17 @@
     <row r="12" spans="1:37" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="90"/>
       <c r="B12" s="104"/>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="170"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
       <c r="J12" s="90"/>
-      <c r="K12" s="139"/>
+      <c r="K12" s="157"/>
       <c r="L12" s="32">
         <v>0.30769999999999997</v>
       </c>
@@ -3916,7 +3988,7 @@
         <v>34</v>
       </c>
       <c r="R12" s="90"/>
-      <c r="S12" s="139"/>
+      <c r="S12" s="157"/>
       <c r="T12" s="3">
         <v>0</v>
       </c>
@@ -3939,26 +4011,26 @@
     </row>
     <row r="13" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="141" t="s">
+      <c r="B13" s="171"/>
+      <c r="C13" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="143" t="s">
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="145" t="s">
+      <c r="H13" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="147" t="s">
+      <c r="I13" s="160" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="90"/>
-      <c r="K13" s="140"/>
+      <c r="K13" s="159"/>
       <c r="L13" s="4">
         <v>0.33329999999999999</v>
       </c>
@@ -3978,7 +4050,7 @@
         <v>35</v>
       </c>
       <c r="R13" s="90"/>
-      <c r="S13" s="140"/>
+      <c r="S13" s="159"/>
       <c r="T13" s="4">
         <v>0</v>
       </c>
@@ -4001,8 +4073,8 @@
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="139"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="157"/>
       <c r="D14" s="100" t="s">
         <v>5</v>
       </c>
@@ -4012,9 +4084,9 @@
       <c r="F14" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="148"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="161"/>
       <c r="J14" s="90"/>
       <c r="K14" s="94"/>
       <c r="L14" s="90"/>
@@ -4035,8 +4107,8 @@
     </row>
     <row r="15" spans="1:37" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="156" t="s">
+      <c r="B15" s="172"/>
+      <c r="C15" s="158" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="98">
@@ -4058,22 +4130,22 @@
         <v>28</v>
       </c>
       <c r="J15" s="90"/>
-      <c r="K15" s="168" t="s">
+      <c r="K15" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="170"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="155"/>
       <c r="R15" s="90"/>
       <c r="Z15" s="90"/>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="156"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="98">
         <v>0.58819999999999995</v>
       </c>
@@ -4093,29 +4165,29 @@
         <v>34</v>
       </c>
       <c r="J16" s="90"/>
-      <c r="K16" s="141" t="s">
+      <c r="K16" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="142" t="s">
+      <c r="L16" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="143" t="s">
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="145" t="s">
+      <c r="P16" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="147" t="s">
+      <c r="Q16" s="160" t="s">
         <v>9</v>
       </c>
       <c r="R16" s="90"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="156"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="98">
         <v>0.46150000000000002</v>
       </c>
@@ -4135,7 +4207,7 @@
         <v>35</v>
       </c>
       <c r="J17" s="90"/>
-      <c r="K17" s="139"/>
+      <c r="K17" s="157"/>
       <c r="L17" s="80" t="s">
         <v>5</v>
       </c>
@@ -4145,9 +4217,9 @@
       <c r="N17" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="O17" s="144"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="148"/>
+      <c r="O17" s="182"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="161"/>
       <c r="R17" s="90"/>
       <c r="X17" s="1" t="s">
         <v>21</v>
@@ -4155,8 +4227,8 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="156" t="s">
+      <c r="B18" s="172"/>
+      <c r="C18" s="158" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="97">
@@ -4178,7 +4250,7 @@
         <v>28</v>
       </c>
       <c r="J18" s="90"/>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="157" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="10">
@@ -4203,8 +4275,8 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="90"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="156"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="98">
         <v>0.36359999999999998</v>
       </c>
@@ -4224,7 +4296,7 @@
         <v>34</v>
       </c>
       <c r="J19" s="92"/>
-      <c r="K19" s="139"/>
+      <c r="K19" s="157"/>
       <c r="L19" s="81">
         <v>0.52629999999999999</v>
       </c>
@@ -4247,8 +4319,8 @@
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="157"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="99">
         <v>0</v>
       </c>
@@ -4268,7 +4340,7 @@
         <v>35</v>
       </c>
       <c r="J20" s="90"/>
-      <c r="K20" s="139"/>
+      <c r="K20" s="157"/>
       <c r="L20" s="82">
         <v>0.5333</v>
       </c>
@@ -4300,7 +4372,7 @@
       <c r="H21" s="90"/>
       <c r="I21" s="91"/>
       <c r="J21" s="90"/>
-      <c r="K21" s="139" t="s">
+      <c r="K21" s="157" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="89">
@@ -4325,14 +4397,14 @@
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="90"/>
-      <c r="F22" s="158" t="s">
+      <c r="F22" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="160"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="177"/>
       <c r="J22" s="90"/>
-      <c r="K22" s="139"/>
+      <c r="K22" s="157"/>
       <c r="L22" s="81">
         <v>0.28570000000000001</v>
       </c>
@@ -4371,12 +4443,12 @@
       <c r="G23" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="142" t="s">
+      <c r="H23" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="161"/>
+      <c r="I23" s="178"/>
       <c r="J23" s="90"/>
-      <c r="K23" s="139"/>
+      <c r="K23" s="157"/>
       <c r="L23" s="81">
         <v>0.36359999999999998</v>
       </c>
@@ -4399,13 +4471,13 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="90"/>
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="149" t="s">
+      <c r="C24" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="149" t="s">
+      <c r="D24" s="169" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="34">
@@ -4413,10 +4485,10 @@
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="174"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="150"/>
       <c r="J24" s="90"/>
-      <c r="K24" s="139" t="s">
+      <c r="K24" s="157" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="10">
@@ -4441,18 +4513,18 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="90"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
       <c r="E25" s="35">
         <v>200</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="152"/>
       <c r="J25" s="90"/>
-      <c r="K25" s="139"/>
+      <c r="K25" s="157"/>
       <c r="L25" s="88">
         <v>0.30099999999999999</v>
       </c>
@@ -4475,18 +4547,18 @@
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
       <c r="E26" s="35">
         <v>8</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="163"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="146"/>
       <c r="J26" s="90"/>
-      <c r="K26" s="140"/>
+      <c r="K26" s="159"/>
       <c r="L26" s="4">
         <v>0.33329999999999999</v>
       </c>
@@ -4509,16 +4581,16 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="90"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="151"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="164"/>
+      <c r="D27" s="170"/>
       <c r="E27" s="36">
         <v>1</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="163"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="146"/>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
@@ -4531,8 +4603,8 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="150"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="26" t="s">
         <v>27</v>
       </c>
@@ -4541,13 +4613,13 @@
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="33"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="163"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="146"/>
       <c r="J28" s="90"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
-      <c r="B29" s="155"/>
+      <c r="B29" s="166"/>
       <c r="C29" s="101" t="s">
         <v>10</v>
       </c>
@@ -4559,8 +4631,8 @@
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="27"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="163"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="146"/>
       <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -4568,10 +4640,10 @@
       <c r="B30" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="164" t="s">
+      <c r="C30" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="164" t="s">
+      <c r="D30" s="163" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="35">
@@ -4579,33 +4651,33 @@
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="163"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="146"/>
       <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
       <c r="E31" s="37">
         <v>200</v>
       </c>
       <c r="F31" s="85"/>
       <c r="G31" s="86"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="163"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="146"/>
       <c r="J31" s="90"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="164" t="s">
+      <c r="D32" s="163" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="58">
@@ -4613,21 +4685,21 @@
       </c>
       <c r="F32" s="85"/>
       <c r="G32" s="86"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="163"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="146"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
       <c r="E33" s="87">
         <v>200</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="78"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="148"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="90"/>
@@ -4649,25 +4721,51 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AD6:AE6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
     <mergeCell ref="K2:Q2"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="S2:Y2"/>
@@ -4684,51 +4782,25 @@
     <mergeCell ref="S5:S7"/>
     <mergeCell ref="S8:S10"/>
     <mergeCell ref="S11:S13"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AD6:AE6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AH5:AJ5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4739,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -4777,18 +4849,18 @@
     <row r="2" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90"/>
       <c r="B2" s="95"/>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="90"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4809,15 +4881,15 @@
       <c r="G3" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="143" t="s">
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="181" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="90"/>
@@ -4829,8 +4901,8 @@
       <c r="D4" s="185"/>
       <c r="E4" s="185"/>
       <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="194"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="187"/>
       <c r="I4" s="100" t="s">
         <v>5</v>
       </c>
@@ -4840,22 +4912,22 @@
       <c r="K4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="144"/>
+      <c r="L4" s="182"/>
       <c r="M4" s="95"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="95"/>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="181" t="s">
+      <c r="F5" s="196" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="118" t="s">
@@ -4881,10 +4953,10 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
       <c r="B6" s="95"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="182"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="120" t="s">
         <v>34</v>
       </c>
@@ -4908,10 +4980,10 @@
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="95"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="183"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="190"/>
       <c r="G7" s="122" t="s">
         <v>35</v>
       </c>
@@ -4935,16 +5007,16 @@
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90"/>
       <c r="B8" s="95"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
       <c r="M8" s="95"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4965,18 +5037,18 @@
     <row r="10" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
       <c r="B10" s="95"/>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
       <c r="M10" s="95"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4997,15 +5069,15 @@
       <c r="G11" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="193" t="s">
+      <c r="H11" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143" t="s">
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="181" t="s">
         <v>40</v>
       </c>
       <c r="M11" s="95"/>
@@ -5018,7 +5090,7 @@
       <c r="E12" s="185"/>
       <c r="F12" s="185"/>
       <c r="G12" s="185"/>
-      <c r="H12" s="194"/>
+      <c r="H12" s="187"/>
       <c r="I12" s="100" t="s">
         <v>5</v>
       </c>
@@ -5028,22 +5100,22 @@
       <c r="K12" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="144"/>
+      <c r="L12" s="182"/>
       <c r="M12" s="95"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="95"/>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="E13" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="139" t="s">
+      <c r="F13" s="157" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="120" t="s">
@@ -5069,10 +5141,10 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="95"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="139"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="120" t="s">
         <v>34</v>
       </c>
@@ -5096,10 +5168,10 @@
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="95"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="140"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="159"/>
       <c r="G15" s="122" t="s">
         <v>35</v>
       </c>
@@ -5123,31 +5195,31 @@
     <row r="16" spans="1:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="95"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="M16" s="90"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="95"/>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="156" t="s">
+      <c r="E17" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="182" t="s">
+      <c r="F17" s="189" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="118" t="s">
@@ -5173,10 +5245,10 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="95"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="182"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="189"/>
       <c r="G18" s="120" t="s">
         <v>34</v>
       </c>
@@ -5200,10 +5272,10 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="95"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="183"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="120" t="s">
         <v>35</v>
       </c>
@@ -5227,31 +5299,31 @@
     <row r="20" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="90"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
       <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90"/>
       <c r="B21" s="90"/>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="187" t="s">
+      <c r="E21" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="141" t="s">
+      <c r="F21" s="156" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="118" t="s">
@@ -5286,10 +5358,10 @@
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90"/>
       <c r="B22" s="90"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="139"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="120" t="s">
         <v>34</v>
       </c>
@@ -5322,10 +5394,10 @@
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="189"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="193"/>
       <c r="G23" s="120" t="s">
         <v>35</v>
       </c>
@@ -5361,13 +5433,13 @@
       <c r="C24" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="192" t="s">
+      <c r="D24" s="188" t="s">
         <v>143</v>
       </c>
       <c r="E24" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="192" t="s">
+      <c r="F24" s="188" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="124" t="s">
@@ -5393,10 +5465,10 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="90"/>
       <c r="B25" s="92"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="139"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="157"/>
       <c r="G25" s="120" t="s">
         <v>34</v>
       </c>
@@ -5420,10 +5492,10 @@
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
       <c r="B26" s="90"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="140"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="122" t="s">
         <v>35</v>
       </c>
@@ -5447,31 +5519,31 @@
     <row r="27" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="90"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
       <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="90"/>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="156" t="s">
+      <c r="E28" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="139" t="s">
+      <c r="F28" s="157" t="s">
         <v>145</v>
       </c>
       <c r="G28" s="118" t="s">
@@ -5497,10 +5569,10 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="90"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="139"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="157"/>
       <c r="G29" s="120" t="s">
         <v>34</v>
       </c>
@@ -5524,10 +5596,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="90"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="139"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="157"/>
       <c r="G30" s="120" t="s">
         <v>35</v>
       </c>
@@ -5551,16 +5623,16 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="90"/>
-      <c r="C31" s="156" t="s">
+      <c r="C31" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="156" t="s">
+      <c r="E31" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="139" t="s">
+      <c r="F31" s="157" t="s">
         <v>146</v>
       </c>
       <c r="G31" s="124" t="s">
@@ -5586,10 +5658,10 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="90"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="139"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="157"/>
       <c r="G32" s="120" t="s">
         <v>34</v>
       </c>
@@ -5613,10 +5685,10 @@
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
       <c r="B33" s="90"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="140"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
       <c r="G33" s="122" t="s">
         <v>35</v>
       </c>
@@ -5640,16 +5712,16 @@
     <row r="34" spans="1:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="90"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
       <c r="M34" s="90"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -5690,16 +5762,31 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="C34:L34"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D3:D4"/>
@@ -5716,31 +5803,16 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="C20:L20"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5750,10 +5822,405 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="204" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="206"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="157"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="180"/>
+      <c r="G3" s="161"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="157"/>
+      <c r="B5" s="18">
+        <v>250</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="157"/>
+      <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7">
+        <v>40</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="157"/>
+      <c r="B8" s="18">
+        <v>250</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="159"/>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="206"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="162" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="157"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="180"/>
+      <c r="G13" s="161"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="158"/>
+      <c r="B15" s="18">
+        <v>250</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7">
+        <v>15</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="158"/>
+      <c r="B16" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="D16" s="7">
+        <v>60</v>
+      </c>
+      <c r="E16" s="7">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="158"/>
+      <c r="B18" s="18">
+        <v>250</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="174"/>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView topLeftCell="M1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5801,26 +6268,26 @@
     <row r="2" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="90"/>
       <c r="B2" s="131"/>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="154" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
       <c r="M2" s="90"/>
       <c r="N2" s="131"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="199"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="199"/>
-      <c r="T2" s="199"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
       <c r="U2" s="90"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5841,15 +6308,15 @@
       <c r="G3" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="193" t="s">
+      <c r="H3" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="142" t="s">
+      <c r="I3" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="143" t="s">
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="181" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="90"/>
@@ -5857,7 +6324,7 @@
       <c r="O3" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="200" t="s">
+      <c r="P3" s="199" t="s">
         <v>142</v>
       </c>
       <c r="Q3" s="184" t="s">
@@ -5869,7 +6336,7 @@
       <c r="S3" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="145" t="s">
+      <c r="T3" s="179" t="s">
         <v>5</v>
       </c>
       <c r="U3" s="90"/>
@@ -5881,8 +6348,8 @@
       <c r="D4" s="185"/>
       <c r="E4" s="185"/>
       <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="194"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="187"/>
       <c r="I4" s="130" t="s">
         <v>5</v>
       </c>
@@ -5892,30 +6359,30 @@
       <c r="K4" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="144"/>
+      <c r="L4" s="182"/>
       <c r="M4" s="131"/>
       <c r="N4" s="131"/>
       <c r="O4" s="185"/>
-      <c r="P4" s="201"/>
+      <c r="P4" s="200"/>
       <c r="Q4" s="185"/>
       <c r="R4" s="185"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="146"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="180"/>
       <c r="U4" s="131"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="131"/>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="187" t="s">
+      <c r="E5" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="181" t="s">
+      <c r="F5" s="196" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="118" t="s">
@@ -5939,32 +6406,32 @@
       <c r="M5" s="131"/>
       <c r="N5" s="131"/>
       <c r="O5" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="141" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="Q5" s="187" t="s">
+      <c r="Q5" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="141" t="s">
+      <c r="R5" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="196" t="s">
+      <c r="S5" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="132">
-        <v>0.55569999999999997</v>
+      <c r="T5" s="132" t="s">
+        <v>158</v>
       </c>
       <c r="U5" s="131"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="90"/>
       <c r="B6" s="131"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="182"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="120" t="s">
         <v>34</v>
       </c>
@@ -5988,10 +6455,10 @@
       <c r="O6" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="197"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="158"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="202"/>
       <c r="T6" s="133">
         <v>0</v>
       </c>
@@ -6000,10 +6467,10 @@
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
       <c r="B7" s="131"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="183"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="190"/>
       <c r="G7" s="122" t="s">
         <v>35</v>
       </c>
@@ -6025,14 +6492,14 @@
       <c r="M7" s="131"/>
       <c r="N7" s="131"/>
       <c r="O7" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="197"/>
+        <v>160</v>
+      </c>
+      <c r="P7" s="156" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="157"/>
+      <c r="S7" s="202"/>
       <c r="T7" s="133">
         <v>0</v>
       </c>
@@ -6041,27 +6508,27 @@
     <row r="8" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90"/>
       <c r="B8" s="131"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
       <c r="M8" s="131"/>
       <c r="N8" s="131"/>
       <c r="O8" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="140" t="s">
+      <c r="P8" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="198"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="203"/>
       <c r="T8" s="134">
         <v>0</v>
       </c>
@@ -6093,18 +6560,18 @@
     <row r="10" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
       <c r="B10" s="131"/>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
       <c r="M10" s="131"/>
       <c r="N10" s="131"/>
       <c r="O10" s="94"/>
@@ -6133,15 +6600,15 @@
       <c r="G11" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="193" t="s">
+      <c r="H11" s="186" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="143" t="s">
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="181" t="s">
         <v>40</v>
       </c>
       <c r="M11" s="131"/>
@@ -6154,7 +6621,7 @@
       <c r="E12" s="185"/>
       <c r="F12" s="185"/>
       <c r="G12" s="185"/>
-      <c r="H12" s="194"/>
+      <c r="H12" s="187"/>
       <c r="I12" s="130" t="s">
         <v>5</v>
       </c>
@@ -6164,22 +6631,22 @@
       <c r="K12" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="144"/>
+      <c r="L12" s="182"/>
       <c r="M12" s="131"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="90"/>
       <c r="B13" s="131"/>
-      <c r="C13" s="139" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="156" t="s">
+      <c r="E13" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="139" t="s">
+      <c r="F13" s="157" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="120" t="s">
@@ -6205,10 +6672,10 @@
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="90"/>
       <c r="B14" s="131"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="139"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="157"/>
       <c r="G14" s="120" t="s">
         <v>34</v>
       </c>
@@ -6232,10 +6699,10 @@
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="90"/>
       <c r="B15" s="131"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="140"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="159"/>
       <c r="G15" s="122" t="s">
         <v>35</v>
       </c>
@@ -6259,31 +6726,31 @@
     <row r="16" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
       <c r="B16" s="131"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
       <c r="M16" s="90"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="90"/>
       <c r="B17" s="131"/>
-      <c r="C17" s="156" t="s">
+      <c r="C17" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="157" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="156" t="s">
+      <c r="E17" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="182" t="s">
+      <c r="F17" s="189" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="118" t="s">
@@ -6309,10 +6776,10 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="90"/>
       <c r="B18" s="131"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="182"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="189"/>
       <c r="G18" s="120" t="s">
         <v>34</v>
       </c>
@@ -6336,10 +6803,10 @@
     <row r="19" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
       <c r="B19" s="131"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="183"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="120" t="s">
         <v>35</v>
       </c>
@@ -6363,31 +6830,31 @@
     <row r="20" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
       <c r="B20" s="90"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
       <c r="M20" s="90"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="90"/>
       <c r="B21" s="90"/>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="187" t="s">
+      <c r="E21" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="141" t="s">
+      <c r="F21" s="156" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="118" t="s">
@@ -6422,10 +6889,10 @@
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90"/>
       <c r="B22" s="90"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="139"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="157"/>
       <c r="G22" s="120" t="s">
         <v>34</v>
       </c>
@@ -6458,10 +6925,10 @@
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="188"/>
-      <c r="F23" s="189"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="193"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="193"/>
       <c r="G23" s="120" t="s">
         <v>35</v>
       </c>
@@ -6497,13 +6964,13 @@
       <c r="C24" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="192" t="s">
+      <c r="D24" s="188" t="s">
         <v>143</v>
       </c>
       <c r="E24" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="192" t="s">
+      <c r="F24" s="188" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="124" t="s">
@@ -6529,10 +6996,10 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="90"/>
       <c r="B25" s="92"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="139"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="157"/>
       <c r="G25" s="120" t="s">
         <v>34</v>
       </c>
@@ -6556,10 +7023,10 @@
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
       <c r="B26" s="90"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="140"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="122" t="s">
         <v>35</v>
       </c>
@@ -6583,31 +7050,31 @@
     <row r="27" spans="1:16" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
       <c r="B27" s="90"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
       <c r="M27" s="90"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90"/>
       <c r="B28" s="90"/>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="156" t="s">
+      <c r="E28" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="139" t="s">
+      <c r="F28" s="157" t="s">
         <v>145</v>
       </c>
       <c r="G28" s="118" t="s">
@@ -6633,10 +7100,10 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="90"/>
       <c r="B29" s="90"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="139"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="157"/>
       <c r="G29" s="120" t="s">
         <v>34</v>
       </c>
@@ -6660,10 +7127,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="90"/>
       <c r="B30" s="90"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="139"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="157"/>
       <c r="G30" s="120" t="s">
         <v>35</v>
       </c>
@@ -6687,16 +7154,16 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="90"/>
       <c r="B31" s="90"/>
-      <c r="C31" s="156" t="s">
+      <c r="C31" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="E31" s="156" t="s">
+      <c r="E31" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="139" t="s">
+      <c r="F31" s="157" t="s">
         <v>146</v>
       </c>
       <c r="G31" s="124" t="s">
@@ -6722,10 +7189,10 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="90"/>
       <c r="B32" s="90"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="139"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="157"/>
       <c r="G32" s="120" t="s">
         <v>34</v>
       </c>
@@ -6749,10 +7216,10 @@
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
       <c r="B33" s="90"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="140"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
       <c r="G33" s="122" t="s">
         <v>35</v>
       </c>
@@ -6776,16 +7243,16 @@
     <row r="34" spans="1:13" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
       <c r="B34" s="90"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
       <c r="M34" s="90"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -6826,21 +7293,38 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="S5:S8"/>
+    <mergeCell ref="Q5:Q8"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="L11:L12"/>
@@ -6857,38 +7341,21 @@
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="S5:S8"/>
-    <mergeCell ref="Q5:Q8"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6896,402 +7363,421 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="A1:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="204"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="241"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="240"/>
+      <c r="B2" s="154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="240"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="240"/>
+      <c r="B3" s="184" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="162" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="240"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="240"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="139" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="139" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="240"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="240"/>
+      <c r="B5" s="238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="110">
+        <v>100</v>
+      </c>
+      <c r="G5" s="110">
+        <v>40</v>
+      </c>
+      <c r="H5" s="240"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="240"/>
+      <c r="B6" s="238"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="239" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="140" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="110">
+        <v>100</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="240"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="240"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="239" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="110">
+        <v>200</v>
+      </c>
+      <c r="G7" s="110">
+        <v>25</v>
+      </c>
+      <c r="H7" s="240"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="240"/>
+      <c r="B8" s="238" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="128">
+        <v>160</v>
+      </c>
+      <c r="G8" s="128">
+        <v>13</v>
+      </c>
+      <c r="H8" s="240"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="240"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="110">
+        <v>80</v>
+      </c>
+      <c r="G9" s="110">
+        <v>30</v>
+      </c>
+      <c r="H9" s="240"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="240"/>
+      <c r="B10" s="238"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="112">
+        <v>40</v>
+      </c>
+      <c r="G10" s="112">
+        <v>25</v>
+      </c>
+      <c r="H10" s="240"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="240"/>
+      <c r="B11" s="238" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="140">
         <v>0</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="F11" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="240"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="240"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="239" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="140">
+        <v>0</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="240"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="240"/>
+      <c r="B13" s="238"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="239" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="140">
+        <v>0</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="240"/>
+    </row>
+    <row r="14" spans="1:8" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="240"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="240"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="240"/>
+      <c r="B15" s="238" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="157" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="140" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="110">
+        <v>10</v>
+      </c>
+      <c r="G15" s="110">
+        <v>17</v>
+      </c>
+      <c r="H15" s="240"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="240"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="140" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="110">
+        <v>10</v>
+      </c>
+      <c r="G16" s="110">
+        <v>17</v>
+      </c>
+      <c r="H16" s="240"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="240"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="112">
+        <v>100</v>
+      </c>
+      <c r="G17" s="112">
+        <v>13</v>
+      </c>
+      <c r="H17" s="240"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="240"/>
+      <c r="B18" s="238" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="110">
+        <v>20</v>
+      </c>
+      <c r="G18" s="110">
+        <v>13</v>
+      </c>
+      <c r="H18" s="240"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="240"/>
+      <c r="B19" s="238"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="239" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="140" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="110">
+        <v>20</v>
+      </c>
+      <c r="G19" s="110">
         <v>4</v>
       </c>
-      <c r="C2" s="142" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="139"/>
-      <c r="B3" s="146"/>
-      <c r="C3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="148"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="7">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7">
-        <v>40</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="18">
-        <v>250</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.42859999999999998</v>
-      </c>
-      <c r="D6" s="7">
-        <v>60</v>
-      </c>
-      <c r="E6" s="7">
-        <v>40</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.52629999999999999</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="18">
-        <v>250</v>
-      </c>
-      <c r="C8" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="D9" s="8">
-        <v>100</v>
-      </c>
-      <c r="E9" s="8">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="202" t="s">
+      <c r="H19" s="240"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="240"/>
+      <c r="B20" s="238"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="239" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="140" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="110">
+        <v>200</v>
+      </c>
+      <c r="G20" s="110">
         <v>13</v>
       </c>
-      <c r="B11" s="203"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="204"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="145" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="145" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="147" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="148"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="156" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="18">
-        <v>250</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7">
-        <v>20</v>
-      </c>
-      <c r="E15" s="7">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="156"/>
-      <c r="B16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.42859999999999998</v>
-      </c>
-      <c r="D16" s="7">
-        <v>60</v>
-      </c>
-      <c r="E16" s="7">
-        <v>40</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
-      <c r="B18" s="18">
-        <v>250</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="157"/>
-      <c r="B19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>35</v>
-      </c>
+      <c r="H20" s="240"/>
+    </row>
+    <row r="21" spans="1:8" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="240"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="240"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
+  <mergeCells count="17">
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -7312,31 +7798,31 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="76"/>
-      <c r="D1" s="231" t="s">
+      <c r="D1" s="207" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="232"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="232"/>
-      <c r="H1" s="232"/>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
-      <c r="K1" s="232"/>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="233"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
+      <c r="M1" s="208"/>
+      <c r="N1" s="208"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="209"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="75"/>
-      <c r="B2" s="208"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="234">
+      <c r="B2" s="218"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="210">
         <v>1</v>
       </c>
-      <c r="E2" s="235"/>
+      <c r="E2" s="211"/>
       <c r="F2" s="212">
         <v>2</v>
       </c>
@@ -7360,12 +7846,12 @@
       <c r="P2" s="214">
         <v>7</v>
       </c>
-      <c r="Q2" s="215"/>
+      <c r="Q2" s="222"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="75"/>
-      <c r="B3" s="210"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="221"/>
       <c r="D3" s="65" t="s">
         <v>84</v>
       </c>
@@ -7410,10 +7896,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="236" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="61" t="s">
@@ -7435,8 +7921,8 @@
       <c r="Q4" s="35"/>
     </row>
     <row r="5" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="206"/>
-      <c r="B5" s="230"/>
+      <c r="A5" s="216"/>
+      <c r="B5" s="237"/>
       <c r="C5" s="62" t="s">
         <v>74</v>
       </c>
@@ -7456,8 +7942,8 @@
       <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
-      <c r="B6" s="230"/>
+      <c r="A6" s="216"/>
+      <c r="B6" s="237"/>
       <c r="C6" s="62" t="s">
         <v>75</v>
       </c>
@@ -7483,8 +7969,8 @@
       <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
-      <c r="B7" s="230"/>
+      <c r="A7" s="216"/>
+      <c r="B7" s="237"/>
       <c r="C7" s="62" t="s">
         <v>76</v>
       </c>
@@ -7504,8 +7990,8 @@
       <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
-      <c r="B8" s="230"/>
+      <c r="A8" s="216"/>
+      <c r="B8" s="237"/>
       <c r="C8" s="62" t="s">
         <v>20</v>
       </c>
@@ -7537,8 +8023,8 @@
       <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="206"/>
-      <c r="B9" s="230"/>
+      <c r="A9" s="216"/>
+      <c r="B9" s="237"/>
       <c r="C9" s="62" t="s">
         <v>9</v>
       </c>
@@ -7558,8 +8044,8 @@
       <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
-      <c r="B10" s="230"/>
+      <c r="A10" s="216"/>
+      <c r="B10" s="237"/>
       <c r="C10" s="62" t="s">
         <v>8</v>
       </c>
@@ -7587,8 +8073,8 @@
       <c r="Q10" s="35"/>
     </row>
     <row r="11" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="206"/>
-      <c r="B11" s="230"/>
+      <c r="A11" s="216"/>
+      <c r="B11" s="237"/>
       <c r="C11" s="62" t="s">
         <v>80</v>
       </c>
@@ -7608,8 +8094,8 @@
       <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
-      <c r="B12" s="220" t="s">
+      <c r="A12" s="216"/>
+      <c r="B12" s="227" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="63" t="s">
@@ -7637,8 +8123,8 @@
       <c r="Q12" s="58"/>
     </row>
     <row r="13" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="206"/>
-      <c r="B13" s="221"/>
+      <c r="A13" s="216"/>
+      <c r="B13" s="228"/>
       <c r="C13" s="64" t="s">
         <v>79</v>
       </c>
@@ -7662,11 +8148,11 @@
       <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="207"/>
-      <c r="B14" s="222" t="s">
+      <c r="A14" s="217"/>
+      <c r="B14" s="229" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="223"/>
+      <c r="C14" s="230"/>
       <c r="D14" s="4"/>
       <c r="E14" s="52"/>
       <c r="F14" s="54"/>
@@ -7683,10 +8169,10 @@
       <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="226" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="62" t="s">
@@ -7708,8 +8194,8 @@
       <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
-      <c r="B16" s="217"/>
+      <c r="A16" s="216"/>
+      <c r="B16" s="224"/>
       <c r="C16" s="62" t="s">
         <v>90</v>
       </c>
@@ -7729,8 +8215,8 @@
       <c r="Q16" s="35"/>
     </row>
     <row r="17" spans="1:17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="206"/>
-      <c r="B17" s="216" t="s">
+      <c r="A17" s="216"/>
+      <c r="B17" s="223" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -7752,8 +8238,8 @@
       <c r="Q17" s="58"/>
     </row>
     <row r="18" spans="1:17" ht="54.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
-      <c r="B18" s="217"/>
+      <c r="A18" s="216"/>
+      <c r="B18" s="224"/>
       <c r="C18" s="62" t="s">
         <v>91</v>
       </c>
@@ -7775,8 +8261,8 @@
       <c r="Q18" s="35"/>
     </row>
     <row r="19" spans="1:17" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="207"/>
-      <c r="B19" s="218"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="225"/>
       <c r="C19" s="70" t="s">
         <v>92</v>
       </c>
@@ -7796,10 +8282,10 @@
       <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="215" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="227" t="s">
+      <c r="B20" s="234" t="s">
         <v>97</v>
       </c>
       <c r="C20" s="61" t="s">
@@ -7821,8 +8307,8 @@
       <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="206"/>
-      <c r="B21" s="228"/>
+      <c r="A21" s="216"/>
+      <c r="B21" s="235"/>
       <c r="C21" s="62" t="s">
         <v>89</v>
       </c>
@@ -7842,8 +8328,8 @@
       <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="206"/>
-      <c r="B22" s="228"/>
+      <c r="A22" s="216"/>
+      <c r="B22" s="235"/>
       <c r="C22" s="62" t="s">
         <v>98</v>
       </c>
@@ -7877,8 +8363,8 @@
       <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="206"/>
-      <c r="B23" s="224" t="s">
+      <c r="A23" s="216"/>
+      <c r="B23" s="231" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -7900,8 +8386,8 @@
       <c r="Q23" s="58"/>
     </row>
     <row r="24" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="206"/>
-      <c r="B24" s="225"/>
+      <c r="A24" s="216"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="62" t="s">
         <v>96</v>
       </c>
@@ -7921,8 +8407,8 @@
       <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="207"/>
-      <c r="B25" s="226"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="233"/>
       <c r="C25" s="70" t="s">
         <v>100</v>
       </c>
@@ -7943,12 +8429,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="N2:O2"/>
@@ -7962,13 +8442,19 @@
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
